--- a/formatos_hoja_de_calculo/CE-10391-TABLET-PARVULARIA.xlsx
+++ b/formatos_hoja_de_calculo/CE-10391-TABLET-PARVULARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC010381-5B65-4BE7-9ED7-74F215D28CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048ADC6-FC9D-494B-B1DD-A0FA6A0520AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,7 +1161,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{85CDD601-8995-4BA8-9300-2112F7A20379}" name="Tabla2" displayName="Tabla2" ref="A1:T58" totalsRowShown="0">
   <autoFilter ref="A1:T58" xr:uid="{85CDD601-8995-4BA8-9300-2112F7A20379}">
     <filterColumn colId="16">
-      <filters blank="1"/>
+      <filters>
+        <filter val="5 AÑOS"/>
+        <filter val="Sección 5 años"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="17">
+      <filters>
+        <filter val="B"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="20">
@@ -1480,7 +1488,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1505,7 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="41.140625" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
@@ -1735,7 +1743,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45757</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45757</v>
       </c>
@@ -2003,7 +2011,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45757</v>
       </c>
@@ -2540,7 +2548,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45757</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45757</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45757</v>
       </c>
@@ -3614,7 +3622,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45757</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45757</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45757</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45757</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45757</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45757</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45757</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45757</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45757</v>
       </c>
@@ -4467,7 +4475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45757</v>
       </c>
